--- a/ITcoach/openpyxl处理数据/1.14 实例应用（筛选成绩总分大于等于300分的记录）/test1.xlsx
+++ b/ITcoach/openpyxl处理数据/1.14 实例应用（筛选成绩总分大于等于300分的记录）/test1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="成绩表" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,239 +12,6 @@
   <definedNames/>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>语文</t>
-  </si>
-  <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>化学</t>
-  </si>
-  <si>
-    <t>暨昊焱</t>
-  </si>
-  <si>
-    <t>业水悦</t>
-  </si>
-  <si>
-    <t>潮绮艳</t>
-  </si>
-  <si>
-    <t>查又绿</t>
-  </si>
-  <si>
-    <t>巧正卿</t>
-  </si>
-  <si>
-    <t>释寒雁</t>
-  </si>
-  <si>
-    <t>牢希彤</t>
-  </si>
-  <si>
-    <t>俟忻愉</t>
-  </si>
-  <si>
-    <t>赏凝荷</t>
-  </si>
-  <si>
-    <t>殳南风</t>
-  </si>
-  <si>
-    <t>贰思真</t>
-  </si>
-  <si>
-    <t>郦昕雨</t>
-  </si>
-  <si>
-    <t>勇笑槐</t>
-  </si>
-  <si>
-    <t>郁清婉</t>
-  </si>
-  <si>
-    <t>莘晨蓓</t>
-  </si>
-  <si>
-    <t>恽晓瑶</t>
-  </si>
-  <si>
-    <t>徐飞英</t>
-  </si>
-  <si>
-    <t>鲜毅然</t>
-  </si>
-  <si>
-    <t>容阳旭</t>
-  </si>
-  <si>
-    <t>莱问柳</t>
-  </si>
-  <si>
-    <t>首欢欣</t>
-  </si>
-  <si>
-    <t>阙夏岚</t>
-  </si>
-  <si>
-    <t>卑文丽</t>
-  </si>
-  <si>
-    <t>寿宏富</t>
-  </si>
-  <si>
-    <t>闻依风</t>
-  </si>
-  <si>
-    <t>钟轩昂</t>
-  </si>
-  <si>
-    <t>鄂会雯</t>
-  </si>
-  <si>
-    <t>殷迎天</t>
-  </si>
-  <si>
-    <t>柔高格</t>
-  </si>
-  <si>
-    <t>剧凌柏</t>
-  </si>
-  <si>
-    <t>性妮子</t>
-  </si>
-  <si>
-    <t>文清晖</t>
-  </si>
-  <si>
-    <t>碧鲁正平</t>
-  </si>
-  <si>
-    <t>势梅花</t>
-  </si>
-  <si>
-    <t>堵俊友</t>
-  </si>
-  <si>
-    <t>镇振锐</t>
-  </si>
-  <si>
-    <t>山平彤</t>
-  </si>
-  <si>
-    <t>所清涵</t>
-  </si>
-  <si>
-    <t>闻人傲云</t>
-  </si>
-  <si>
-    <t>伯雅静</t>
-  </si>
-  <si>
-    <t>裔展鹏</t>
-  </si>
-  <si>
-    <t>典静美</t>
-  </si>
-  <si>
-    <t>嬴文瑞</t>
-  </si>
-  <si>
-    <t>富察英豪</t>
-  </si>
-  <si>
-    <t>化思涵</t>
-  </si>
-  <si>
-    <t>泥雁卉</t>
-  </si>
-  <si>
-    <t>佘秀媚</t>
-  </si>
-  <si>
-    <t>凭芳林</t>
-  </si>
-  <si>
-    <t>翟依珊</t>
-  </si>
-  <si>
-    <t>真方方</t>
-  </si>
-  <si>
-    <t>娄天空</t>
-  </si>
-  <si>
-    <t>翁若兰</t>
-  </si>
-  <si>
-    <t>红平萱</t>
-  </si>
-  <si>
-    <t>韦依萱</t>
-  </si>
-  <si>
-    <t>雷炫明</t>
-  </si>
-  <si>
-    <t>森依云</t>
-  </si>
-  <si>
-    <t>用思聪</t>
-  </si>
-  <si>
-    <t>庆晴曦</t>
-  </si>
-  <si>
-    <t>丑卓君</t>
-  </si>
-  <si>
-    <t>仲孙秀婉</t>
-  </si>
-  <si>
-    <t>昌博艺</t>
-  </si>
-  <si>
-    <t>咎弘懿</t>
-  </si>
-  <si>
-    <t>苑涵易</t>
-  </si>
-  <si>
-    <t>牟修洁</t>
-  </si>
-  <si>
-    <t>侯红叶</t>
-  </si>
-  <si>
-    <t>禹运发</t>
-  </si>
-  <si>
-    <t>绳夜柳</t>
-  </si>
-  <si>
-    <t>允向山</t>
-  </si>
-  <si>
-    <t>唐晓博</t>
-  </si>
-  <si>
-    <t>秘鸿朗</t>
-  </si>
-  <si>
-    <t>总分</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -284,15 +51,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -565,32 +332,44 @@
   </sheetPr>
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>语文</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>数学</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>英语</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>化学</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>暨昊焱</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>53</v>
@@ -605,9 +384,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>业水悦</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>68</v>
@@ -622,9 +403,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>潮绮艳</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>97</v>
@@ -639,9 +422,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>查又绿</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>70</v>
@@ -656,9 +441,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>巧正卿</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>63</v>
@@ -673,9 +460,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>释寒雁</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>85</v>
@@ -690,9 +479,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>牢希彤</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>72</v>
@@ -707,9 +498,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>俟忻愉</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>87</v>
@@ -724,9 +517,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>赏凝荷</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>60</v>
@@ -741,9 +536,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>殳南风</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>70</v>
@@ -758,9 +555,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>贰思真</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>94</v>
@@ -775,9 +574,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>郦昕雨</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>78</v>
@@ -792,9 +593,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>勇笑槐</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>87</v>
@@ -809,9 +612,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>郁清婉</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>70</v>
@@ -826,9 +631,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>莘晨蓓</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>90</v>
@@ -843,9 +650,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>恽晓瑶</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>97</v>
@@ -860,9 +669,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>21</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>徐飞英</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>86</v>
@@ -877,9 +688,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>22</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>鲜毅然</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>51</v>
@@ -894,9 +707,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>23</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>容阳旭</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>84</v>
@@ -911,9 +726,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>24</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>莱问柳</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>89</v>
@@ -928,9 +745,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>25</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>首欢欣</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>55</v>
@@ -945,9 +764,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>26</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>阙夏岚</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>89</v>
@@ -962,9 +783,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>27</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>卑文丽</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>75</v>
@@ -979,9 +802,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>28</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>寿宏富</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>83</v>
@@ -996,9 +821,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>29</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>闻依风</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>70</v>
@@ -1013,9 +840,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>30</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>钟轩昂</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>56</v>
@@ -1030,9 +859,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>31</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>鄂会雯</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>95</v>
@@ -1047,9 +878,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>32</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>殷迎天</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>98</v>
@@ -1064,9 +897,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>33</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>柔高格</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>52</v>
@@ -1081,9 +916,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>34</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>剧凌柏</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>64</v>
@@ -1098,9 +935,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>35</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>性妮子</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>99</v>
@@ -1115,9 +954,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>36</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>文清晖</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>71</v>
@@ -1132,9 +973,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>37</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>碧鲁正平</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>65</v>
@@ -1149,9 +992,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>38</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>势梅花</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>75</v>
@@ -1166,9 +1011,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>39</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>堵俊友</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>54</v>
@@ -1183,9 +1030,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>40</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>镇振锐</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>84</v>
@@ -1200,9 +1049,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>41</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>山平彤</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>97</v>
@@ -1217,9 +1068,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>42</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>所清涵</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>79</v>
@@ -1234,9 +1087,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>43</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>闻人傲云</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>81</v>
@@ -1251,9 +1106,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>44</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>伯雅静</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>61</v>
@@ -1268,9 +1125,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>45</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>裔展鹏</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>98</v>
@@ -1285,9 +1144,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>46</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>典静美</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>60</v>
@@ -1302,9 +1163,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>47</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>嬴文瑞</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>98</v>
@@ -1319,9 +1182,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>48</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>富察英豪</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>82</v>
@@ -1336,9 +1201,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>49</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>化思涵</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>58</v>
@@ -1353,9 +1220,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>50</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>泥雁卉</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>58</v>
@@ -1370,9 +1239,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>51</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>佘秀媚</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>51</v>
@@ -1387,9 +1258,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>52</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>凭芳林</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>80</v>
@@ -1404,9 +1277,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>53</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>翟依珊</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>98</v>
@@ -1421,9 +1296,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>54</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>真方方</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>84</v>
@@ -1438,9 +1315,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>55</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>娄天空</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>57</v>
@@ -1455,9 +1334,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>56</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>翁若兰</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>92</v>
@@ -1472,9 +1353,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>57</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>红平萱</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>52</v>
@@ -1489,9 +1372,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>58</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>韦依萱</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>85</v>
@@ -1506,9 +1391,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>59</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>雷炫明</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>94</v>
@@ -1523,9 +1410,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>60</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>森依云</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>59</v>
@@ -1540,9 +1429,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>61</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>用思聪</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>64</v>
@@ -1557,9 +1448,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>62</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>庆晴曦</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>54</v>
@@ -1574,9 +1467,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>63</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>丑卓君</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>89</v>
@@ -1591,9 +1486,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>64</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>仲孙秀婉</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>86</v>
@@ -1608,9 +1505,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>65</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>昌博艺</t>
+        </is>
       </c>
       <c r="B62" t="n">
         <v>53</v>
@@ -1625,9 +1524,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>66</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>咎弘懿</t>
+        </is>
       </c>
       <c r="B63" t="n">
         <v>91</v>
@@ -1642,9 +1543,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>67</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>苑涵易</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>83</v>
@@ -1659,9 +1562,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>68</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>牟修洁</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>56</v>
@@ -1676,9 +1581,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>69</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>侯红叶</t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>56</v>
@@ -1693,9 +1600,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>70</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>禹运发</t>
+        </is>
       </c>
       <c r="B67" t="n">
         <v>74</v>
@@ -1710,9 +1619,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>71</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>绳夜柳</t>
+        </is>
       </c>
       <c r="B68" t="n">
         <v>76</v>
@@ -1727,9 +1638,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>72</v>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>允向山</t>
+        </is>
       </c>
       <c r="B69" t="n">
         <v>72</v>
@@ -1744,9 +1657,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>73</v>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>唐晓博</t>
+        </is>
       </c>
       <c r="B70" t="n">
         <v>92</v>
@@ -1761,9 +1676,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>74</v>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>秘鸿朗</t>
+        </is>
       </c>
       <c r="B71" t="n">
         <v>70</v>
@@ -1779,8 +1696,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
@@ -1798,29 +1715,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>语文</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>数学</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>英语</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>化学</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>总分</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>查又绿</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>70</v>
@@ -1838,9 +1769,11 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>10</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>释寒雁</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>85</v>
@@ -1858,9 +1791,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>12</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>俟忻愉</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>87</v>
@@ -1878,9 +1813,11 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>14</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>殳南风</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>70</v>
@@ -1898,9 +1835,11 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>15</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>贰思真</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>94</v>
@@ -1918,9 +1857,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>16</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>郦昕雨</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>78</v>
@@ -1938,9 +1879,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>17</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>勇笑槐</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>87</v>
@@ -1958,9 +1901,11 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>19</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>莘晨蓓</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>90</v>
@@ -1978,9 +1923,11 @@
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>20</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>恽晓瑶</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>97</v>
@@ -1998,9 +1945,11 @@
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>21</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>徐飞英</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>86</v>
@@ -2018,9 +1967,11 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>24</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>莱问柳</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>89</v>
@@ -2038,9 +1989,11 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>25</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>首欢欣</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>55</v>
@@ -2058,9 +2011,11 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>27</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>卑文丽</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>75</v>
@@ -2078,9 +2033,11 @@
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>28</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>寿宏富</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>83</v>
@@ -2098,9 +2055,11 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>30</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>钟轩昂</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>56</v>
@@ -2118,9 +2077,11 @@
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>31</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>鄂会雯</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>95</v>
@@ -2138,9 +2099,11 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>35</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>性妮子</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>99</v>
@@ -2158,9 +2121,11 @@
         <v>313</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>38</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>势梅花</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>75</v>
@@ -2178,9 +2143,11 @@
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>41</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>山平彤</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>97</v>
@@ -2198,9 +2165,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>43</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>闻人傲云</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>81</v>
@@ -2218,9 +2187,11 @@
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>45</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>裔展鹏</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>98</v>
@@ -2238,9 +2209,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>48</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>富察英豪</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>82</v>
@@ -2258,9 +2231,11 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>53</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>翟依珊</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>98</v>
@@ -2278,9 +2253,11 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>56</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>翁若兰</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>92</v>
@@ -2298,9 +2275,11 @@
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>58</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>韦依萱</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>85</v>
@@ -2318,9 +2297,11 @@
         <v>361</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>59</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>雷炫明</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>94</v>
@@ -2338,9 +2319,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>64</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>仲孙秀婉</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>86</v>
@@ -2358,9 +2341,11 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>66</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>咎弘懿</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>91</v>
@@ -2378,9 +2363,11 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>71</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>绳夜柳</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>76</v>
@@ -2398,9 +2385,11 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>73</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>唐晓博</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>92</v>
@@ -2418,9 +2407,11 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>74</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>秘鸿朗</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>70</v>
@@ -2439,6 +2430,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>